--- a/assets/documents/8 - BTS SIO - Annexe 8-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2024.xlsx
+++ b/assets/documents/8 - BTS SIO - Annexe 8-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jukla\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jukla\Desktop\BTS_SIO\Atelier_de_professionnalisation\GitHub\new_portfolio\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9DBEA9-06F5-4D1C-AF4A-DD0521CAD372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D085E31A-29BF-4B05-9E3E-45CF8B4C1ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11060" yWindow="-21710" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -39,36 +39,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
   <si>
-    <t>SESSION 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>Option :</t>
   </si>
   <si>
     <t>▢ SISR</t>
-  </si>
-  <si>
-    <t>▢ SLAM</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -144,32 +129,44 @@
     <t>Portfolio</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x:uml</t>
-  </si>
-  <si>
-    <t>Septembre 2024 - Juin 2025</t>
-  </si>
-  <si>
-    <t>Mai - Juin 2025</t>
-  </si>
-  <si>
-    <t>Avril - Juin 2025</t>
-  </si>
-  <si>
-    <t>Septembre 2024 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">veille technologique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">réalisation de chat (Java, Eclipse, C/S, Multi-client)
+    <t>X</t>
+  </si>
+  <si>
+    <t>16/06/2025 - 20/06/2025</t>
+  </si>
+  <si>
+    <t>CRM-gestion de contact (BDD - Airtable, Visual Studio Code, C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisation de Chat (Java, Visual Studio Code, C/S, Multi-client)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">CRM-gestion de contact (BDD - Airtable, </t>
+    <t>09/04/2025 - 06/07/2025</t>
+  </si>
+  <si>
+    <t>10/02/2025 - 06/07/2025</t>
+  </si>
+  <si>
+    <t>01/10/2024 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veille technologique </t>
+  </si>
+  <si>
+    <t>SESSION 2025</t>
+  </si>
+  <si>
+    <t>NOM et prénom : JUHASZ Klaudia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse URL du portfolio : https://juklau.github.io/portfolio/accueil.html </t>
+  </si>
+  <si>
+    <t>Centre de formation : IRIS MediaSchool Nice</t>
+  </si>
+  <si>
+    <t>X SLAM</t>
   </si>
 </sst>
 </file>
@@ -706,15 +703,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -747,33 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1085,8 +1082,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1099,124 +1096,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="31"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="12" t="s">
+      <c r="B6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="D7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="E7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="F7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="G7" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1255,16 +1252,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="A8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1303,19 +1300,27 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="44"/>
+      <c r="F9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1354,17 +1359,29 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="44"/>
+        <v>27</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1403,22 +1420,26 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="44" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1458,18 +1479,18 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="44" t="s">
-        <v>28</v>
+      <c r="H12" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1778,16 +1799,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+      <c r="A19" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2140,16 +2161,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+      <c r="A27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2594,11 +2615,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2606,6 +2622,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2616,15 +2637,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="665588ff-5dd3-431a-aaf4-bd4a76d54561">
@@ -2633,6 +2645,15 @@
     <TaxCatchAll xmlns="8dfcfa40-b15b-4f0f-a13d-24527312d446" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2837,20 +2858,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A9CD917-9C6C-4808-B3EB-08BF761FD3DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B48EC0E1-0992-4BEA-AB73-03077E430CDC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="665588ff-5dd3-431a-aaf4-bd4a76d54561"/>
     <ds:schemaRef ds:uri="8dfcfa40-b15b-4f0f-a13d-24527312d446"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A9CD917-9C6C-4808-B3EB-08BF761FD3DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/assets/documents/8 - BTS SIO - Annexe 8-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2024.xlsx
+++ b/assets/documents/8 - BTS SIO - Annexe 8-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jukla\Desktop\BTS_SIO\Atelier_de_professionnalisation\GitHub\new_portfolio\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D085E31A-29BF-4B05-9E3E-45CF8B4C1ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E3A7DC-B91A-4CDE-B657-0944FE8375CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11060" yWindow="-21710" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -138,35 +138,35 @@
     <t>CRM-gestion de contact (BDD - Airtable, Visual Studio Code, C)</t>
   </si>
   <si>
-    <t xml:space="preserve">Réalisation de Chat (Java, Visual Studio Code, C/S, Multi-client)
+    <t>09/04/2025 - 06/07/2025</t>
+  </si>
+  <si>
+    <t>10/02/2025 - 06/07/2025</t>
+  </si>
+  <si>
+    <t>01/10/2024 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veille technologique </t>
+  </si>
+  <si>
+    <t>SESSION 2025</t>
+  </si>
+  <si>
+    <t>NOM et prénom : JUHASZ Klaudia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse URL du portfolio : https://juklau.github.io/portfolio/accueil.html </t>
+  </si>
+  <si>
+    <t>Centre de formation : IRIS MediaSchool Nice</t>
+  </si>
+  <si>
+    <t>X SLAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création de Chat (Java, Visual Studio Code, C/S, Multi-clients)
 </t>
-  </si>
-  <si>
-    <t>09/04/2025 - 06/07/2025</t>
-  </si>
-  <si>
-    <t>10/02/2025 - 06/07/2025</t>
-  </si>
-  <si>
-    <t>01/10/2024 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veille technologique </t>
-  </si>
-  <si>
-    <t>SESSION 2025</t>
-  </si>
-  <si>
-    <t>NOM et prénom : JUHASZ Klaudia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adresse URL du portfolio : https://juklau.github.io/portfolio/accueil.html </t>
-  </si>
-  <si>
-    <t>Centre de formation : IRIS MediaSchool Nice</t>
-  </si>
-  <si>
-    <t>X SLAM</t>
   </si>
 </sst>
 </file>
@@ -706,9 +706,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -731,45 +770,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,8 +1082,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1096,56 +1096,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1153,26 +1153,26 @@
         <v>4</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="A5" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1195,8 +1195,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1252,16 +1252,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>24</v>
@@ -1362,7 +1362,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>23</v>
@@ -1423,7 +1423,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
@@ -1479,10 +1479,10 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1799,16 +1799,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2161,16 +2161,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2615,6 +2615,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2622,11 +2627,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2637,6 +2637,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="665588ff-5dd3-431a-aaf4-bd4a76d54561">
@@ -2645,15 +2654,6 @@
     <TaxCatchAll xmlns="8dfcfa40-b15b-4f0f-a13d-24527312d446" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2858,20 +2858,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A9CD917-9C6C-4808-B3EB-08BF761FD3DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B48EC0E1-0992-4BEA-AB73-03077E430CDC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="665588ff-5dd3-431a-aaf4-bd4a76d54561"/>
     <ds:schemaRef ds:uri="8dfcfa40-b15b-4f0f-a13d-24527312d446"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A9CD917-9C6C-4808-B3EB-08BF761FD3DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/assets/documents/8 - BTS SIO - Annexe 8-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2024.xlsx
+++ b/assets/documents/8 - BTS SIO - Annexe 8-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jukla\Desktop\BTS_SIO\Atelier_de_professionnalisation\GitHub\new_portfolio\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E3A7DC-B91A-4CDE-B657-0944FE8375CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9AE7A5-4295-46DC-944B-D18F26493153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -167,6 +167,9 @@
   <si>
     <t xml:space="preserve">Création de Chat (Java, Visual Studio Code, C/S, Multi-clients)
 </t>
+  </si>
+  <si>
+    <t>Application LinkStream</t>
   </si>
 </sst>
 </file>
@@ -706,15 +709,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -746,30 +773,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,7 +1086,7 @@
   <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1096,56 +1099,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="43" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="44"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="31"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1157,22 +1160,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1195,8 +1198,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1252,16 +1255,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1370,9 +1373,7 @@
       <c r="D10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="E10" s="14"/>
       <c r="F10" s="14" t="s">
         <v>23</v>
       </c>
@@ -1799,16 +1800,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1846,7 +1847,9 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="B20" s="8"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2161,16 +2164,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2615,11 +2618,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2627,6 +2625,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2637,15 +2640,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="665588ff-5dd3-431a-aaf4-bd4a76d54561">
@@ -2654,6 +2648,15 @@
     <TaxCatchAll xmlns="8dfcfa40-b15b-4f0f-a13d-24527312d446" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2858,20 +2861,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A9CD917-9C6C-4808-B3EB-08BF761FD3DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B48EC0E1-0992-4BEA-AB73-03077E430CDC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="665588ff-5dd3-431a-aaf4-bd4a76d54561"/>
     <ds:schemaRef ds:uri="8dfcfa40-b15b-4f0f-a13d-24527312d446"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A9CD917-9C6C-4808-B3EB-08BF761FD3DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/assets/documents/8 - BTS SIO - Annexe 8-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2024.xlsx
+++ b/assets/documents/8 - BTS SIO - Annexe 8-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jukla\Desktop\BTS_SIO\Atelier_de_professionnalisation\GitHub\new_portfolio\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9AE7A5-4295-46DC-944B-D18F26493153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE0E6A3-091E-4C05-9F07-2C6770EC32A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -169,7 +169,10 @@
 </t>
   </si>
   <si>
-    <t>Application LinkStream</t>
+    <t>15/07/2025 - 14/08/2025</t>
+  </si>
+  <si>
+    <t>Application LinkStream (API Unipile, n8n, Supabase, Streamlit)</t>
   </si>
 </sst>
 </file>
@@ -709,9 +712,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -734,45 +776,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,7 +1089,7 @@
   <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1099,56 +1102,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1160,22 +1163,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1198,8 +1201,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1255,16 +1258,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1800,16 +1803,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1848,15 +1851,29 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="C20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2164,16 +2181,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2618,6 +2635,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2625,11 +2647,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2640,6 +2657,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="665588ff-5dd3-431a-aaf4-bd4a76d54561">
@@ -2648,15 +2674,6 @@
     <TaxCatchAll xmlns="8dfcfa40-b15b-4f0f-a13d-24527312d446" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2861,20 +2878,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A9CD917-9C6C-4808-B3EB-08BF761FD3DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B48EC0E1-0992-4BEA-AB73-03077E430CDC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="665588ff-5dd3-431a-aaf4-bd4a76d54561"/>
     <ds:schemaRef ds:uri="8dfcfa40-b15b-4f0f-a13d-24527312d446"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A9CD917-9C6C-4808-B3EB-08BF761FD3DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
